--- a/ran_list.xlsx
+++ b/ran_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10740"/>
+    <workbookView windowWidth="20400" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -12096,9 +12096,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -12149,9 +12149,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12163,46 +12171,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12222,46 +12193,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12283,11 +12222,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12300,7 +12300,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12312,13 +12396,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12330,91 +12438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12438,49 +12462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12495,48 +12495,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -12547,6 +12505,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12591,151 +12558,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12763,7 +12763,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13115,16 +13115,16 @@
   <dimension ref="A1:F2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1981" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1994" sqref="L1994"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.17" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.1666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.6" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.3" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.7" style="2" customWidth="1"/>
@@ -13151,7 +13151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="4">
         <v>1324</v>
       </c>

--- a/ran_list.xlsx
+++ b/ran_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7785"/>
+    <workbookView windowWidth="25610" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>总经理</t>
   </si>
   <si>
-    <t>ran_dad@ran-china.com</t>
+    <t>ran_daidong@ran-china.com</t>
   </si>
   <si>
     <t>叶乐安</t>
@@ -12096,10 +12096,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -12155,11 +12155,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12171,9 +12170,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12192,15 +12252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12208,15 +12269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12230,64 +12283,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12300,7 +12300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12312,175 +12480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12491,6 +12491,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12505,26 +12525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12544,35 +12544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12591,155 +12567,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12762,7 +12762,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -13117,14 +13116,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.16666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.17" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.17" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.6" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.3" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.7" style="2" customWidth="1"/>
@@ -13153,7 +13152,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="4">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -13168,7 +13167,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4">
-        <v>1897452521</v>
+        <v>1897452522</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14219,7 +14218,7 @@
         <v>139</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>80</v>
@@ -53144,7 +53143,7 @@
       <c r="D2001" s="5" t="s">
         <v>3754</v>
       </c>
-      <c r="E2001" s="13" t="s">
+      <c r="E2001" s="12" t="s">
         <v>4024</v>
       </c>
       <c r="F2001" s="4">
@@ -53156,7 +53155,7 @@
     <sortCondition ref="A2:A2001"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="ran_dad@ran-china.com" tooltip="mailto:ran_dad@bili-china.com;"/>
+    <hyperlink ref="E2" r:id="rId1" display="ran_daidong@ran-china.com" tooltip="mailto:ran_daidong@ran-china.com"/>
     <hyperlink ref="E248" r:id="rId2" display="ran_sxh@263.com"/>
     <hyperlink ref="E1982" r:id="rId3" display="ran_kru@outlook.com"/>
     <hyperlink ref="E2001" r:id="rId4" display="ran_nma@ran-china.com"/>

--- a/ran_list.xlsx
+++ b/ran_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25610" windowHeight="10670"/>
+    <workbookView windowWidth="20400" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -12097,9 +12097,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -12156,6 +12156,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12169,6 +12184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -12177,15 +12200,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12200,15 +12222,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12216,22 +12231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12254,7 +12254,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12262,14 +12270,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12300,7 +12300,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12312,25 +12348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12342,85 +12390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12438,13 +12414,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12456,31 +12462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12491,56 +12491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12568,11 +12518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12591,151 +12547,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13116,14 +13116,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.17" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.1666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.6" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.3" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.7" style="2" customWidth="1"/>

--- a/ran_list.xlsx
+++ b/ran_list.xlsx
@@ -12148,15 +12148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12178,9 +12172,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12199,39 +12215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12252,9 +12245,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12268,6 +12275,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -12275,17 +12283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12300,7 +12300,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12312,7 +12336,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12324,55 +12432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12384,43 +12468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12432,55 +12480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12491,6 +12491,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12518,6 +12533,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -12529,6 +12553,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12547,195 +12591,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13116,7 +13116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -13167,7 +13167,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4">
-        <v>1897452522</v>
+        <v>15002510721</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13187,7 +13187,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>1897127403</v>
+        <v>15002510722</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13207,7 +13207,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="4">
-        <v>1897127902</v>
+        <v>17794247080</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13227,7 +13227,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="4">
-        <v>1897127324</v>
+        <v>15951465056</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -13247,7 +13247,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="4">
-        <v>1897127035</v>
+        <v>15951465058</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -13267,7 +13267,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="4">
-        <v>1897452849</v>
+        <v>17794247081</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13287,7 +13287,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="4">
-        <v>1897127674</v>
+        <v>15002510727</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13307,7 +13307,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="4">
-        <v>1897452437</v>
+        <v>15002510728</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13327,7 +13327,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="4">
-        <v>1897698754</v>
+        <v>15002510729</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -13347,7 +13347,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="4">
-        <v>1895857276</v>
+        <v>15002510734</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -13367,7 +13367,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="4">
-        <v>1895857220</v>
+        <v>15002510735</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -13387,7 +13387,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="4">
-        <v>1897452369</v>
+        <v>15002510736</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -13407,7 +13407,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="4">
-        <v>1897127896</v>
+        <v>15002510737</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -13427,7 +13427,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="4">
-        <v>1897452432</v>
+        <v>15002510738</v>
       </c>
     </row>
     <row r="16" spans="1:6">
